--- a/APM files/124406355/124406355 EXPORT 3 EPC template.xlsx
+++ b/APM files/124406355/124406355 EXPORT 3 EPC template.xlsx
@@ -1,37 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\124406355\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A9D2C-145F-4D1B-A6F6-6D8A3E6A70D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="10560" yWindow="4140" windowWidth="21510" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +67,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,28 +392,959 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>94952473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>101220316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>93207532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>94310969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>93207301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>93207087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>94411956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>100849269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>93547381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>93537061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>99610480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>94959507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>94956036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>98554026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>98549086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>94374182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>93587103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>100167138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>93589334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>98553170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>98556435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>100777305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>99914633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>98544696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>98551032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>94480260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>94374506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>94961717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>98551074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>94459676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>98551252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>94953219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>100100249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>98545176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>98547837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>94357223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>94953115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>93546510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>93537274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>98549664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>93596901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>94960339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>102107167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>93570740</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>94370742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>99956420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>100849784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>93570953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>98545076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>100874615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>94387829</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>100694662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>94954644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>93200712</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>98556368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>94415983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>93206377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>98552044</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>99261162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>94953161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>94389541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>101587790</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>94508864</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>94953296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>94953699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>100994992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>93201809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>94522653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>93200860</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>94955537</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>94952326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>99795002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>93199850</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>98554158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>94317425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>98555689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>93536550</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>100850339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>100849876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>93402868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>94959344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>93205333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>93546711</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>93204135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>98553951</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>100652136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>99823100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>99286265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>94952361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>98552480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>94458960</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>93200380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>94371027</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94384501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>98547537</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>94412510</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>98555067</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98554060</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>93547575</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>94961852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>100652138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>100652137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>94330683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>100850392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>100849848</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>94531957</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>94539177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>94337723</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>94956388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>100100343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>94335612</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>94367052</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>99773383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>100849350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>93600678</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>100652139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>100652135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>94495341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>98548862</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>100464015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>102402576</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>100849546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>93547624</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>100850235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>99978102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>94370572</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>94953472</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>98556874</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>93202288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>93570845</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>93596894</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>98553045</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>99610436</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>99956374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>100463968</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>98545066</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>102129707</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>98545221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>93532725</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>94523484</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>100039495</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>93205057</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>98557033</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>99242262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>93202181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>100850383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>93546357</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>100777314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>94368098</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>94953511</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>93205813</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>95867135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>94955436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>94956159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>100100344</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>93200327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>101154678</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>94488743</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>98545061</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>94954943</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>94962661</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>94952556</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>94959894</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>93546017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>94964462</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>94358081</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>100423982</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>98555235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>99261035</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>93201305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>94954785</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>100849495</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>98548645</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>93532639</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>94362895</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>94958267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>98551778</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>98553611</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>99242261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>98556865</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>98553033</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>100850421</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>99242258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>98554257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>102402571</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>93546615</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>94370525</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>94424059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
